--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3566139.444092513</v>
+        <v>3670165.495953021</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498523</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7668754.500943613</v>
+        <v>7632594.788662056</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>68.60693069714249</v>
       </c>
       <c r="C2" t="n">
-        <v>326.4523041199379</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>30.66278316902684</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>68.56715919549046</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>402.7106095258318</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>176.5628832813633</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>127.3165365479904</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,13 +1113,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>223.0750301880756</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>186.1590670005686</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>102.2794790960057</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>91.74341314428794</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>100.4260381670914</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>132.6315337216692</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>61.3925852712106</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>17.48314223074837</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>95.12712756824166</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1816,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2138,13 +2140,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>80.67842139643641</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>54.63637568893558</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>69.8286381302724</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>185.6271053876774</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>116.287325111933</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898942</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065883</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545296</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308917</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002293</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541843</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652597</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808212</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.741638509605</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352487</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317884</v>
+        <v>166.1566063360906</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969976</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308922</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652651</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>252.757348783817</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.9101287729429</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>66.39615665301106</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652651</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>136.7848966149585</v>
+        <v>133.5908209162891</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856536</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012186</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U46" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365908</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1561.90077266991</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528559</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645722</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.90077266991</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.9042569062804</v>
+        <v>732.1533772316425</v>
       </c>
       <c r="C4" t="n">
-        <v>457.9680739783734</v>
+        <v>563.2171943037356</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>413.1005548913998</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>265.1874613090067</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>265.1874613090067</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>97.48462468372568</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.594608541189</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.594608541189</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>1257.334851778068</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X4" t="n">
-        <v>1029.34530088005</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="Y4" t="n">
-        <v>808.5527217365201</v>
+        <v>913.8018420618822</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1611.504630229389</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C5" t="n">
-        <v>1242.542113288978</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="D5" t="n">
-        <v>884.2764146822271</v>
+        <v>304.8329088053694</v>
       </c>
       <c r="E5" t="n">
-        <v>884.2764146822271</v>
+        <v>304.8329088053694</v>
       </c>
       <c r="F5" t="n">
-        <v>473.2905098926196</v>
+        <v>297.887408056166</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>286.8553619415665</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4595,22 +4597,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.243802269323</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y5" t="n">
-        <v>1998.104470293511</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="6">
@@ -4635,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158131</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271517</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8175152271517</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="D7" t="n">
-        <v>362.8175152271517</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E7" t="n">
-        <v>362.8175152271517</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F7" t="n">
-        <v>362.8175152271517</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>195.1146786018707</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>999.4108682892002</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>709.9936982522396</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>709.9936982522396</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>709.9936982522396</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1303.529887077737</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3137.566359992436</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3137.566359992436</v>
+        <v>3016.315468845913</v>
       </c>
       <c r="V8" t="n">
-        <v>2806.503472648865</v>
+        <v>3016.315468845913</v>
       </c>
       <c r="W8" t="n">
-        <v>2453.73481737875</v>
+        <v>2663.546813575798</v>
       </c>
       <c r="X8" t="n">
-        <v>2080.269059117671</v>
+        <v>2290.081055314718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1690.129727141859</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
         <v>772.5608581015648</v>
@@ -4957,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4995,19 @@
         <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>1553.108092385688</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X10" t="n">
-        <v>1325.11854148767</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="Y10" t="n">
-        <v>1104.32596234414</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="11">
@@ -5024,64 +5026,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2312.991837396757</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2312.991837396757</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,16 +5357,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>580.8993044876688</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5464,22 +5466,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,37 +5503,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>372.4964262156764</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>867.8220324314351</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1465.200520057987</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5762,13 +5764,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,19 +6077,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2376.429105670894</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1323.650755795185</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>1095.661204897168</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.8686257536381</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>3659.984780604089</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>4287.582744158696</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>4287.582744158696</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687975</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
         <v>631.7012443408906</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2009.560418833348</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1720.485192177545</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.485192177545</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W28" t="n">
-        <v>1431.068022140585</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X28" t="n">
-        <v>1203.078471242567</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.2858920990373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,13 +6478,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,16 +6499,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319335</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656826</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494266</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580118</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345479</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380726</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311319</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656413</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382517</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973195</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547833</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.38532953243</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838284</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594053</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518749</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582388</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400514</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6710,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309963</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>943.510265746755</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,52 +6925,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7010,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
         <v>1540.888753373307</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384027</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>2828.967015012343</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>3456.56497856695</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>4008.474708806237</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>4432.097858301305</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4665.359518676187</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>607.8487094728846</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>460.9587619749742</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,25 +7490,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580121</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345483</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384027</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,16 +7675,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852888</v>
@@ -7691,7 +7693,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263525</v>
+        <v>781.3544215660716</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356184</v>
+        <v>612.4182386381644</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232828</v>
+        <v>612.4182386381644</v>
       </c>
       <c r="E46" t="n">
-        <v>631.70124434089</v>
+        <v>464.5051450557711</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429797</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038346</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797749</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235167</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579365</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V46" t="n">
-        <v>1975.033022579365</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W46" t="n">
-        <v>1685.615852542404</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X46" t="n">
-        <v>1457.626301644387</v>
+        <v>916.2946447138384</v>
       </c>
       <c r="Y46" t="n">
-        <v>1236.833722500857</v>
+        <v>916.2946447138384</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>48.39475227997539</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>164.3170701178265</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>149.7636788678795</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>50.29392045468958</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>125.1956044930017</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>31.77834493961083</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>85.98103698773738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>123.3744592024055</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>33.76564955277397</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>23.61400951932598</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>80.03780599355811</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.04708356697861</v>
+        <v>46.24115926564835</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>668422.3512266608</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>668422.3512266608</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>668422.3512266608</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>668422.3512266608</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>668422.3512266608</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657306.215087239</v>
+        <v>657306.2150872387</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055055</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="J2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="K2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710692</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710697</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363166</v>
+        <v>6.063298011819521e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551174</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316954</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26442,22 +26444,22 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>20377.7794449116</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.7794449116</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.7794449116</v>
+        <v>12386.92018181808</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.7794449116</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.7794449116</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181829</v>
+        <v>12386.92018181808</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748262.9598710863</v>
+        <v>-748262.9598710864</v>
       </c>
       <c r="C6" t="n">
+        <v>580481.7858565066</v>
+      </c>
+      <c r="D6" t="n">
         <v>580481.7858565063</v>
       </c>
-      <c r="D6" t="n">
-        <v>580481.7858565066</v>
-      </c>
       <c r="E6" t="n">
-        <v>327867.3578924253</v>
+        <v>327867.3578924256</v>
       </c>
       <c r="F6" t="n">
         <v>653279.819699781</v>
       </c>
       <c r="G6" t="n">
+        <v>653279.8196997804</v>
+      </c>
+      <c r="H6" t="n">
         <v>653279.8196997807</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>653279.8196997808</v>
+      </c>
+      <c r="J6" t="n">
+        <v>435748.6173025031</v>
+      </c>
+      <c r="K6" t="n">
         <v>653279.8196997803</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>653279.8196997805</v>
+      </c>
+      <c r="M6" t="n">
+        <v>568224.7917642689</v>
+      </c>
+      <c r="N6" t="n">
+        <v>653279.8196997808</v>
+      </c>
+      <c r="O6" t="n">
+        <v>653279.8196997808</v>
+      </c>
+      <c r="P6" t="n">
         <v>653279.8196997807</v>
-      </c>
-      <c r="J6" t="n">
-        <v>435748.6173025035</v>
-      </c>
-      <c r="K6" t="n">
-        <v>637020.0680786109</v>
-      </c>
-      <c r="L6" t="n">
-        <v>656447.7860722423</v>
-      </c>
-      <c r="M6" t="n">
-        <v>571392.7581367304</v>
-      </c>
-      <c r="N6" t="n">
-        <v>656447.7860722428</v>
-      </c>
-      <c r="O6" t="n">
-        <v>656447.7860722424</v>
-      </c>
-      <c r="P6" t="n">
-        <v>653279.8196997803</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203957</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203957</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203957</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>314.1269109663381</v>
       </c>
       <c r="C2" t="n">
-        <v>38.82058765106967</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>114.0922317452939</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>217.9558391411005</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>8.211116127621665</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>118.0448811059572</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.43847836633041</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>29.06261313575237</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>17.75890313905157</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>148.7156928628962</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>194.779585192303</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>118.1586151850034</v>
       </c>
     </row>
     <row r="11">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,22 +29748,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29803,13 +29805,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>302.9675447508045</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32077,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>453.7122424932254</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32233,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32312,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>268.1779244693588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,7 +32326,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32482,7 +32484,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32549,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>307.4654529393634</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32795,7 +32797,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,13 +33265,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,22 +33496,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>428.6149474293401</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33734,19 +33736,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>481.4297026814658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179101</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,16 +34210,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9499448422525</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>398.1179220955534</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287862</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>322.3705304098921</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>130.3364854949998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,7 +35974,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36911,13 +36913,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549929</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016745</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.626661811171</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930847</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.910780481947</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.546547198085</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986645</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919379</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>290.0605676494659</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>339.2956687594475</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.73094315394616</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,16 +37858,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>71.39556506237828</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295353</v>
+        <v>81.0464832629532</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3670165.495953021</v>
+        <v>3666152.885939028</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.60693069714249</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="3">
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>30.66278316902684</v>
+        <v>75.41231307284862</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>120.7056494455325</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>176.5628832813633</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>223.0750301880756</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>31.73725475703766</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>22.05778319390836</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>102.2794790960057</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.4260381670914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>61.3925852712106</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>17.48314223074837</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.63824106824919</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>80.67842139643641</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.63637568893558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>116.287325111933</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487365</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,16 +3000,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>166.1566063360906</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>22.04658882052573</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>252.757348783817</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.9101287729429</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>66.39615665301106</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.5908209162891</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012186</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016448</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272884</v>
+        <v>199.9811704213157</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.338782035317</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.376265094905</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881545</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.63871203243</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.1533772316425</v>
+        <v>1021.570547268603</v>
       </c>
       <c r="C4" t="n">
-        <v>563.2171943037356</v>
+        <v>852.6343643406964</v>
       </c>
       <c r="D4" t="n">
-        <v>413.1005548913998</v>
+        <v>702.5177249283606</v>
       </c>
       <c r="E4" t="n">
-        <v>265.1874613090067</v>
+        <v>554.6046313459675</v>
       </c>
       <c r="F4" t="n">
-        <v>265.1874613090067</v>
+        <v>407.7146838480571</v>
       </c>
       <c r="G4" t="n">
-        <v>97.48462468372568</v>
+        <v>240.0118472227761</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4527,13 +4527,13 @@
         <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.594421205412</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>1134.594421205412</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y4" t="n">
-        <v>913.8018420618822</v>
+        <v>1203.219012098843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1032.061124352532</v>
+        <v>1712.34156756514</v>
       </c>
       <c r="C5" t="n">
-        <v>663.0986074121199</v>
+        <v>1712.34156756514</v>
       </c>
       <c r="D5" t="n">
-        <v>304.8329088053694</v>
+        <v>1354.075868958389</v>
       </c>
       <c r="E5" t="n">
-        <v>304.8329088053694</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>297.887408056166</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>286.8553619415665</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653545</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392465</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416653</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.3452334219999</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C7" t="n">
-        <v>528.3452334219999</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>999.4108682892002</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>709.9936982522396</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X7" t="n">
-        <v>709.9936982522396</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.9936982522396</v>
+        <v>1123.145505859711</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513.341883274785</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C8" t="n">
-        <v>1144.379366334374</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276231</v>
+        <v>510.8106564211463</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>510.8106564211463</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>99.82475163153879</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>88.79270551693934</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>88.79270551693934</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4810,10 +4810,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3016.315468845913</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3016.315468845913</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2663.546813575798</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2290.081055314718</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.941723338907</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.990851592604</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>874.0013006945865</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.5608581015648</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5032,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.0424953278208</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2425.106274420413</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2242.251440075317</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2022.649975098258</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1733.574748442456</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1478.890260236569</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1189.473090199608</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>961.4835393015907</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>740.6909601580605</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5743,58 +5743,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2567.280686761779</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>3062.606292977538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3659.984780604089</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>4287.582744158696</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4287.582744158696</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6448,37 +6448,37 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.5579673960132</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>614.6217844681063</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1703.405732304761</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1413.9885622678</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1185.999011369783</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.2064322262529</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>424.9938751277886</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>2231.588527385791</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>2828.967015012343</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3456.56497856695</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4008.474708806237</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4432.097858301305</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4665.359518676187</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>924.6979859831846</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>755.7618030552777</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>755.7618030552777</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>607.8487094728846</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>460.9587619749742</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1327.139029956954</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1106.346450813424</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7490,28 +7490,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>449.4852666057155</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.3544215660716</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C46" t="n">
-        <v>612.4182386381644</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381644</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557711</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578605</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578605</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487565</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510506</v>
+        <v>2244.961901336507</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854704</v>
+        <v>1955.886674680705</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648817</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611856</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138384</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138384</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>164.3170701178265</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>149.7636788678795</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.73700564187249</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.1956044930017</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>85.98103698773738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>123.3744592024055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>33.76564955277397</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>23.61400951932598</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>80.03780599355811</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.24115926564835</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.42427990597261</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657306.2150872387</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710689</v>
-      </c>
-      <c r="C2" t="n">
-        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055057</v>
@@ -26346,13 +26346,13 @@
         <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26368,7 +26368,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551174</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316933</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26435,7 +26435,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26444,13 +26444,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="L4" t="n">
         <v>12386.92018181818</v>
       </c>
-      <c r="L4" t="n">
-        <v>12386.92018181815</v>
-      </c>
       <c r="M4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26459,7 +26459,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748262.9598710864</v>
+        <v>-748262.9598710863</v>
       </c>
       <c r="C6" t="n">
-        <v>580481.7858565066</v>
+        <v>580481.7858565061</v>
       </c>
       <c r="D6" t="n">
-        <v>580481.7858565063</v>
+        <v>580481.7858565067</v>
       </c>
       <c r="E6" t="n">
-        <v>327867.3578924256</v>
+        <v>327519.9786380682</v>
       </c>
       <c r="F6" t="n">
-        <v>653279.819699781</v>
+        <v>652932.4404454236</v>
       </c>
       <c r="G6" t="n">
-        <v>653279.8196997804</v>
+        <v>652932.4404454238</v>
       </c>
       <c r="H6" t="n">
-        <v>653279.8196997807</v>
+        <v>652932.4404454237</v>
       </c>
       <c r="I6" t="n">
-        <v>653279.8196997808</v>
+        <v>652932.4404454238</v>
       </c>
       <c r="J6" t="n">
-        <v>435748.6173025031</v>
+        <v>435401.2380481461</v>
       </c>
       <c r="K6" t="n">
-        <v>653279.8196997803</v>
+        <v>652932.4404454236</v>
       </c>
       <c r="L6" t="n">
-        <v>653279.8196997805</v>
+        <v>652932.4404454238</v>
       </c>
       <c r="M6" t="n">
-        <v>568224.7917642689</v>
+        <v>567877.4125099117</v>
       </c>
       <c r="N6" t="n">
-        <v>653279.8196997808</v>
+        <v>652932.4404454234</v>
       </c>
       <c r="O6" t="n">
-        <v>653279.8196997808</v>
+        <v>652932.4404454236</v>
       </c>
       <c r="P6" t="n">
-        <v>653279.8196997807</v>
+        <v>652932.4404454237</v>
       </c>
     </row>
   </sheetData>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.1269109663381</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>114.0922317452939</v>
+        <v>69.34270184147216</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>261.2247206267293</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>118.0448811059572</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>29.06261313575237</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>186.8473985950571</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>19.51914657901759</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>148.7156928628962</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>118.1586151850034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29748,22 +29748,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29805,13 +29805,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="W32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32235,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,28 +33499,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179101</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,31 +34210,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,13 +34447,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>290.0605676494659</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394616</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,13 +38095,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3666152.885939028</v>
+        <v>3667913.416241813</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>277.3605237366022</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>227.7172236952955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>75.41231307284862</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -867,13 +867,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>265.1813384042906</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>120.7056494455325</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>33.38304376058922</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.73725475703766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>122.2882635917089</v>
       </c>
       <c r="I8" t="n">
-        <v>22.05778319390836</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380459</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062049</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>46.29306638367346</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>223.8290352905946</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>147.6895341487365</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>199.9811704213157</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1512.746163729872</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>768.6922125248775</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>357.7063077352699</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>346.6742616206705</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410103</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410103</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X2" t="n">
-        <v>2961.784676410103</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1021.570547268603</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>852.6343643406964</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>702.5177249283606</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>554.6046313459675</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>407.7146838480571</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>240.0118472227761</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.011591242373</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="X4" t="n">
-        <v>1424.011591242373</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>1203.219012098843</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.34156756514</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C5" t="n">
-        <v>1712.34156756514</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="D5" t="n">
-        <v>1354.075868958389</v>
+        <v>1354.075868958387</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>968.2876163601431</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>557.3017115705356</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>142.2292614155321</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866153</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605073</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>941.4970410294717</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845646</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1123.145505859711</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278969</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211463</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E8" t="n">
-        <v>510.8106564211463</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="F8" t="n">
-        <v>99.82475163153879</v>
+        <v>243.0645598847979</v>
       </c>
       <c r="G8" t="n">
-        <v>88.79270551693934</v>
+        <v>232.0325137701985</v>
       </c>
       <c r="H8" t="n">
-        <v>88.79270551693934</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5181,22 +5181,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,67 +5734,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>282.2891673205955</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>140.5773361627936</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7080,16 +7080,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2244.961901336507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>34.97276993489207</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.925938869475857</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>119.4047645948081</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.42427990597261</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>668422.3512266608</v>
+        <v>668422.3512266609</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055056</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055053</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055055</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26435,19 +26435,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181808</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748262.9598710863</v>
+        <v>-748262.9598710862</v>
       </c>
       <c r="C6" t="n">
-        <v>580481.7858565061</v>
+        <v>580481.7858565062</v>
       </c>
       <c r="D6" t="n">
-        <v>580481.7858565067</v>
+        <v>580481.7858565062</v>
       </c>
       <c r="E6" t="n">
-        <v>327519.9786380682</v>
+        <v>327832.6199669896</v>
       </c>
       <c r="F6" t="n">
-        <v>652932.4404454236</v>
+        <v>653245.0817743451</v>
       </c>
       <c r="G6" t="n">
-        <v>652932.4404454238</v>
+        <v>653245.081774345</v>
       </c>
       <c r="H6" t="n">
-        <v>652932.4404454237</v>
+        <v>653245.0817743446</v>
       </c>
       <c r="I6" t="n">
-        <v>652932.4404454238</v>
+        <v>653245.0817743451</v>
       </c>
       <c r="J6" t="n">
-        <v>435401.2380481461</v>
+        <v>435713.8793770671</v>
       </c>
       <c r="K6" t="n">
-        <v>652932.4404454236</v>
+        <v>653245.0817743449</v>
       </c>
       <c r="L6" t="n">
-        <v>652932.4404454238</v>
+        <v>653245.0817743448</v>
       </c>
       <c r="M6" t="n">
-        <v>567877.4125099117</v>
+        <v>568190.053838833</v>
       </c>
       <c r="N6" t="n">
-        <v>652932.4404454234</v>
+        <v>653245.0817743447</v>
       </c>
       <c r="O6" t="n">
-        <v>652932.4404454236</v>
+        <v>653245.081774345</v>
       </c>
       <c r="P6" t="n">
-        <v>652932.4404454237</v>
+        <v>653245.081774345</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,10 +26962,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>17.24724065071825</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.5207149607581</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>69.34270184147216</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>21.03049980132226</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>261.2247206267293</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>261.2247206267313</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>186.8473985950571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>172.3195007956115</v>
       </c>
       <c r="I8" t="n">
-        <v>19.51914657901759</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276458</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33900,13 +33900,13 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
